--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46435.76164907222</v>
+        <v>-37749.71705569803</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21512039.16959921</v>
+        <v>21435272.5865369</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1303050.846472348</v>
+        <v>1328991.44974829</v>
       </c>
     </row>
     <row r="11">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4001,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6.944471810258847</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>14.14970355050605</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>13.80934987914306</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>24.10542890307158</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>24.10542890307158</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>24.10542890307158</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>8.268873201708415</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>8.268873201708415</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>8.268873201708415</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.268873201708415</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>8.268873201708415</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>7.670389724712637</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>23.19179796761868</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>38.71320621052472</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>54.23461445343075</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>54.23461445343075</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>39.94198460443474</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>17.09081091291113</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>17.09081091291113</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>17.09081091291113</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>17.09081091291113</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>17.09081091291113</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>16.775663454454</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>20.03028606707086</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>35.5516943099769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>51.07310255288294</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>62.71276057739813</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>62.71276057739813</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>62.71276057739813</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.71276057739813</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>62.71276057739813</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>46.87620487603496</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>31.03964917467179</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>17.09081091291113</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>17.09081091291113</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>17.09081091291113</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.254255211547963</v>
       </c>
     </row>
   </sheetData>
@@ -22559,49 +22561,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.1579769515977</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H2" t="n">
-        <v>302.8526396377018</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I2" t="n">
-        <v>66.86645017139571</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J2" t="n">
-        <v>32.32750642064433</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K2" t="n">
-        <v>27.69388552783373</v>
+        <v>31.42917993820345</v>
       </c>
       <c r="L2" t="n">
-        <v>19.2605385526292</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M2" t="n">
-        <v>8.475381293867869</v>
+        <v>13.63155801534685</v>
       </c>
       <c r="N2" t="n">
-        <v>6.72505475987299</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O2" t="n">
-        <v>11.80561265633085</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P2" t="n">
-        <v>24.18986307561259</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q2" t="n">
-        <v>37.87261245685656</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R2" t="n">
-        <v>56.97036671910967</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S2" t="n">
-        <v>122.9213478872065</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8699802758928</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U2" t="n">
-        <v>254.4512448779251</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22638,22 +22640,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.6617707663822</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H3" t="n">
-        <v>67.54374686571899</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I3" t="n">
-        <v>31.40849275738481</v>
+        <v>31.94943612980073</v>
       </c>
       <c r="J3" t="n">
-        <v>26.95225147731545</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K3" t="n">
-        <v>14.09326236962642</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.411388745407635</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22665,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.908778772589713</v>
+        <v>7.908981644977501</v>
       </c>
       <c r="Q3" t="n">
-        <v>23.70287805456196</v>
+        <v>25.70843422154194</v>
       </c>
       <c r="R3" t="n">
-        <v>42.95419973026392</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S3" t="n">
-        <v>102.1096854188119</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T3" t="n">
-        <v>156.7067474194398</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3603000694515</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -22717,49 +22719,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.3612190849339</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H4" t="n">
-        <v>146.1850044512799</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I4" t="n">
-        <v>108.6667853949175</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J4" t="n">
-        <v>36.11471251334376</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K4" t="n">
-        <v>27.07747822466578</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L4" t="n">
-        <v>22.41565970901928</v>
+        <v>24.37397299861712</v>
       </c>
       <c r="M4" t="n">
-        <v>22.30123629540936</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N4" t="n">
-        <v>18.55652032594892</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O4" t="n">
-        <v>25.44984999261544</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P4" t="n">
-        <v>29.57482236659715</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.21652862697032</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R4" t="n">
-        <v>74.67780643556814</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S4" t="n">
-        <v>180.7519167387287</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T4" t="n">
-        <v>236.2274880237403</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9583477204947</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -22796,49 +22798,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1579769515977</v>
       </c>
       <c r="H5" t="n">
-        <v>302.4666507227926</v>
+        <v>302.8526396377018</v>
       </c>
       <c r="I5" t="n">
-        <v>65.41342074217175</v>
+        <v>66.86645017139571</v>
       </c>
       <c r="J5" t="n">
-        <v>29.12864625545149</v>
+        <v>32.32750642064433</v>
       </c>
       <c r="K5" t="n">
-        <v>22.89962335916381</v>
+        <v>27.69388552783373</v>
       </c>
       <c r="L5" t="n">
-        <v>13.31283239473387</v>
+        <v>19.2605385526292</v>
       </c>
       <c r="M5" t="n">
-        <v>1.857412192921856</v>
+        <v>8.475381293867869</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.72505475987299</v>
       </c>
       <c r="O5" t="n">
-        <v>5.455334146684052</v>
+        <v>11.80561265633085</v>
       </c>
       <c r="P5" t="n">
-        <v>18.77004728651482</v>
+        <v>24.18986307561259</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.80255651301093</v>
+        <v>37.87261245685656</v>
       </c>
       <c r="R5" t="n">
-        <v>54.60284554970459</v>
+        <v>56.97036671910967</v>
       </c>
       <c r="S5" t="n">
-        <v>122.0624954621124</v>
+        <v>122.9213478872065</v>
       </c>
       <c r="T5" t="n">
-        <v>217.7049939241276</v>
+        <v>217.8699802758928</v>
       </c>
       <c r="U5" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4512448779251</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22875,19 +22877,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6617707663822</v>
       </c>
       <c r="H6" t="n">
-        <v>67.34898837361527</v>
+        <v>67.54374686571899</v>
       </c>
       <c r="I6" t="n">
-        <v>30.71419023103866</v>
+        <v>31.40849275738481</v>
       </c>
       <c r="J6" t="n">
-        <v>25.04703227731259</v>
+        <v>26.95225147731545</v>
       </c>
       <c r="K6" t="n">
-        <v>10.83693929797212</v>
+        <v>14.09326236962642</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22902,22 +22904,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.058008913728727</v>
+        <v>4.908778772589713</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.1287403823609</v>
+        <v>23.70287805456196</v>
       </c>
       <c r="R6" t="n">
-        <v>41.70215558211665</v>
+        <v>42.95419973026392</v>
       </c>
       <c r="S6" t="n">
-        <v>101.7351158393118</v>
+        <v>102.1096854188119</v>
       </c>
       <c r="T6" t="n">
-        <v>156.6254653784574</v>
+        <v>156.7067474194398</v>
       </c>
       <c r="U6" t="n">
-        <v>195.358973376726</v>
+        <v>195.3603000694515</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -22954,49 +22956,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3612190849339</v>
       </c>
       <c r="H7" t="n">
-        <v>146.0346923403866</v>
+        <v>146.1850044512799</v>
       </c>
       <c r="I7" t="n">
-        <v>108.158367743757</v>
+        <v>108.6667853949175</v>
       </c>
       <c r="J7" t="n">
-        <v>34.91943921434874</v>
+        <v>36.11471251334376</v>
       </c>
       <c r="K7" t="n">
-        <v>25.11327702096816</v>
+        <v>27.07747822466578</v>
       </c>
       <c r="L7" t="n">
-        <v>19.90215841909198</v>
+        <v>22.41565970901928</v>
       </c>
       <c r="M7" t="n">
-        <v>19.6511016040668</v>
+        <v>22.30123629540936</v>
       </c>
       <c r="N7" t="n">
-        <v>15.9693999142242</v>
+        <v>18.55652032594892</v>
       </c>
       <c r="O7" t="n">
-        <v>23.06022555481493</v>
+        <v>25.44984999261544</v>
       </c>
       <c r="P7" t="n">
-        <v>27.53008583968064</v>
+        <v>29.57482236659715</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.80085904267777</v>
+        <v>43.21652862697032</v>
       </c>
       <c r="R7" t="n">
-        <v>73.91763905266609</v>
+        <v>74.67780643556814</v>
       </c>
       <c r="S7" t="n">
-        <v>180.457286558174</v>
+        <v>180.7519167387287</v>
       </c>
       <c r="T7" t="n">
-        <v>236.1552521422272</v>
+        <v>236.2274880237403</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9583477204947</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -23270,22 +23272,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H11" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I11" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J11" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K11" t="n">
-        <v>21.55405633213152</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L11" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R11" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T11" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23349,19 +23351,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H12" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I12" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J12" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K12" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R12" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S12" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T12" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -23428,49 +23430,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H13" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I13" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J13" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K13" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L13" t="n">
-        <v>19.19671421534549</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M13" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N13" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O13" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P13" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R13" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S13" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T13" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23507,22 +23509,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H14" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I14" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J14" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K14" t="n">
-        <v>21.55405633213152</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L14" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R14" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T14" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23586,19 +23588,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H15" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I15" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J15" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K15" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R15" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S15" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T15" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -23665,49 +23667,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H16" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I16" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J16" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K16" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L16" t="n">
-        <v>19.19671421534549</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M16" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N16" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O16" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P16" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R16" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S16" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T16" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23744,22 +23746,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H17" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I17" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J17" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K17" t="n">
-        <v>21.55405633213152</v>
+        <v>18.7810162654483</v>
       </c>
       <c r="L17" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503576</v>
       </c>
       <c r="R17" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S17" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T17" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23823,19 +23825,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H18" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I18" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J18" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293733</v>
       </c>
       <c r="K18" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152516</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R18" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S18" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T18" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23902,49 +23904,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H19" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I19" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J19" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K19" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L19" t="n">
-        <v>19.19671421534549</v>
+        <v>17.7428847126168</v>
       </c>
       <c r="M19" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N19" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O19" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P19" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R19" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S19" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T19" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23981,22 +23983,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H20" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I20" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J20" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K20" t="n">
-        <v>21.55405633213152</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L20" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R20" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S20" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T20" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24060,19 +24062,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H21" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I21" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J21" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K21" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R21" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S21" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T21" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -24139,49 +24141,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H22" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I22" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J22" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K22" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L22" t="n">
-        <v>19.19671421534549</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M22" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N22" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O22" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P22" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R22" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S22" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T22" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24218,22 +24220,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H23" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I23" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J23" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K23" t="n">
-        <v>21.55405633213152</v>
+        <v>18.7810162654483</v>
       </c>
       <c r="L23" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q23" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503576</v>
       </c>
       <c r="R23" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S23" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T23" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24297,19 +24299,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H24" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I24" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J24" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293733</v>
       </c>
       <c r="K24" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152516</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R24" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S24" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T24" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -24376,49 +24378,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H25" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I25" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J25" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K25" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L25" t="n">
-        <v>19.19671421534549</v>
+        <v>17.7428847126168</v>
       </c>
       <c r="M25" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N25" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O25" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P25" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R25" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S25" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T25" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24455,22 +24457,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H26" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I26" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J26" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K26" t="n">
-        <v>21.55405633213152</v>
+        <v>18.7810162654483</v>
       </c>
       <c r="L26" t="n">
-        <v>11.64353751452478</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q26" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503576</v>
       </c>
       <c r="R26" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S26" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T26" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24534,19 +24536,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H27" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I27" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J27" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293733</v>
       </c>
       <c r="K27" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152516</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.40627785259142</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R27" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S27" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T27" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -24613,49 +24615,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H28" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I28" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J28" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K28" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L28" t="n">
-        <v>19.19671421534549</v>
+        <v>17.7428847126168</v>
       </c>
       <c r="M28" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N28" t="n">
-        <v>15.24329362330671</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O28" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P28" t="n">
-        <v>26.95620607407936</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.40353443947923</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R28" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S28" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T28" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24692,22 +24694,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H29" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I29" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J29" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K29" t="n">
-        <v>21.55405633213152</v>
+        <v>18.7810162654483</v>
       </c>
       <c r="L29" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q29" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503576</v>
       </c>
       <c r="R29" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S29" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T29" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24771,19 +24773,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H30" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I30" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J30" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293733</v>
       </c>
       <c r="K30" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152516</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R30" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S30" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T30" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -24850,49 +24852,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H31" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I31" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J31" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K31" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L31" t="n">
-        <v>19.19671421534549</v>
+        <v>17.7428847126168</v>
       </c>
       <c r="M31" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N31" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O31" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P31" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R31" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S31" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T31" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24929,22 +24931,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H32" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I32" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J32" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K32" t="n">
-        <v>21.55405633213152</v>
+        <v>18.7810162654483</v>
       </c>
       <c r="L32" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503576</v>
       </c>
       <c r="R32" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S32" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T32" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -25008,19 +25010,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H33" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I33" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J33" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293733</v>
       </c>
       <c r="K33" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152516</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R33" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S33" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T33" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -25087,49 +25089,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H34" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I34" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J34" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K34" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L34" t="n">
-        <v>19.19671421534549</v>
+        <v>17.7428847126168</v>
       </c>
       <c r="M34" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N34" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O34" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P34" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R34" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S34" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T34" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25166,22 +25168,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H35" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I35" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J35" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K35" t="n">
-        <v>21.55405633213152</v>
+        <v>18.7810162654483</v>
       </c>
       <c r="L35" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q35" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503576</v>
       </c>
       <c r="R35" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S35" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T35" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25245,19 +25247,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H36" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I36" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J36" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293733</v>
       </c>
       <c r="K36" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152516</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R36" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S36" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T36" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -25324,49 +25326,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H37" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I37" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J37" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K37" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L37" t="n">
-        <v>19.19671421534549</v>
+        <v>17.7428847126168</v>
       </c>
       <c r="M37" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N37" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O37" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P37" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R37" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S37" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T37" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25403,22 +25405,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H38" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I38" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J38" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K38" t="n">
-        <v>21.55405633213152</v>
+        <v>18.7810162654483</v>
       </c>
       <c r="L38" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q38" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503576</v>
       </c>
       <c r="R38" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S38" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T38" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25482,19 +25484,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H39" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I39" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J39" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293733</v>
       </c>
       <c r="K39" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152516</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R39" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S39" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T39" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -25561,49 +25563,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H40" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I40" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J40" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K40" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L40" t="n">
-        <v>19.19671421534549</v>
+        <v>17.7428847126168</v>
       </c>
       <c r="M40" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N40" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O40" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P40" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R40" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S40" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T40" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25640,22 +25642,22 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1097092771328</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H41" t="n">
-        <v>302.3583183165892</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I41" t="n">
-        <v>65.00561065159138</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J41" t="n">
-        <v>28.23084788503724</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K41" t="n">
-        <v>21.55405633213152</v>
+        <v>18.7810162654483</v>
       </c>
       <c r="L41" t="n">
-        <v>11.64353751452477</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>17.24891115298081</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.66024662599554</v>
+        <v>30.30609330503576</v>
       </c>
       <c r="R41" t="n">
-        <v>53.93837241300997</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S41" t="n">
-        <v>121.8214482553398</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T41" t="n">
-        <v>217.6586885309231</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25719,19 +25721,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.6359452837665</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H42" t="n">
-        <v>67.29432707308776</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I42" t="n">
-        <v>30.51932592171037</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J42" t="n">
-        <v>24.51230971842843</v>
+        <v>23.41031550293733</v>
       </c>
       <c r="K42" t="n">
-        <v>9.923013275483001</v>
+        <v>8.039529638152516</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.40627785259141</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R42" t="n">
-        <v>41.35075441487444</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S42" t="n">
-        <v>101.6299884061901</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T42" t="n">
-        <v>156.6026526013526</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -25798,49 +25800,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.339567867843</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H43" t="n">
-        <v>145.9925054484174</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I43" t="n">
-        <v>108.0156742482211</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J43" t="n">
-        <v>34.58397146501913</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K43" t="n">
-        <v>24.56200045719904</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L43" t="n">
-        <v>19.19671421534549</v>
+        <v>17.7428847126168</v>
       </c>
       <c r="M43" t="n">
-        <v>18.90730960179207</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N43" t="n">
-        <v>15.2432936233067</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O43" t="n">
-        <v>22.38954887144386</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P43" t="n">
-        <v>26.95620607407935</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.40353443947922</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R43" t="n">
-        <v>73.70428898346404</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S43" t="n">
-        <v>180.3745950736087</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T43" t="n">
-        <v>236.1349782779884</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25865,7 +25867,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>390.345154635513</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25874,25 +25876,25 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>401.1419177814998</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1097092771328</v>
+        <v>403.9948574388665</v>
       </c>
       <c r="H44" t="n">
-        <v>302.3583183165892</v>
+        <v>301.182091927944</v>
       </c>
       <c r="I44" t="n">
-        <v>65.00561065159138</v>
+        <v>60.57778515682809</v>
       </c>
       <c r="J44" t="n">
-        <v>28.23084788503724</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K44" t="n">
-        <v>21.55405633213152</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>11.64353751452477</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>3.673052520349231</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>17.24891115298081</v>
+        <v>0.7330732454824584</v>
       </c>
       <c r="Q44" t="n">
-        <v>32.66024662599554</v>
+        <v>6.107836625904653</v>
       </c>
       <c r="R44" t="n">
-        <v>53.93837241300997</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S44" t="n">
-        <v>121.8214482553398</v>
+        <v>119.2042619908454</v>
       </c>
       <c r="T44" t="n">
-        <v>217.6586885309231</v>
+        <v>217.1559246089122</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4381953169066</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25956,19 +25958,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.6359452837665</v>
+        <v>89.8963039884049</v>
       </c>
       <c r="H45" t="n">
-        <v>67.29432707308776</v>
+        <v>66.70083832515573</v>
       </c>
       <c r="I45" t="n">
-        <v>30.51932592171037</v>
+        <v>28.40357357326966</v>
       </c>
       <c r="J45" t="n">
-        <v>24.51230971842843</v>
+        <v>18.70652356075183</v>
       </c>
       <c r="K45" t="n">
-        <v>9.923013275483001</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.40627785259141</v>
+        <v>12.56209233042347</v>
       </c>
       <c r="R45" t="n">
-        <v>41.35075441487444</v>
+        <v>37.53539260028506</v>
       </c>
       <c r="S45" t="n">
-        <v>101.6299884061901</v>
+        <v>100.4885602284008</v>
       </c>
       <c r="T45" t="n">
-        <v>156.6026526013526</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3586010245425</v>
+        <v>179.6763680413106</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>195.896221592547</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>197.2914867018914</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -26035,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.339567867843</v>
+        <v>165.2880492871125</v>
       </c>
       <c r="H46" t="n">
-        <v>145.9925054484174</v>
+        <v>145.5344584306495</v>
       </c>
       <c r="I46" t="n">
-        <v>108.0156742482211</v>
+        <v>106.4663700204336</v>
       </c>
       <c r="J46" t="n">
-        <v>34.58397146501913</v>
+        <v>30.94160780737001</v>
       </c>
       <c r="K46" t="n">
-        <v>24.56200045719904</v>
+        <v>18.57647807777823</v>
       </c>
       <c r="L46" t="n">
-        <v>19.19671421534549</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M46" t="n">
-        <v>18.90730960179207</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N46" t="n">
-        <v>15.2432936233067</v>
+        <v>7.359545719332466</v>
       </c>
       <c r="O46" t="n">
-        <v>22.38954887144386</v>
+        <v>15.1076316605491</v>
       </c>
       <c r="P46" t="n">
-        <v>26.95620607407935</v>
+        <v>20.72526791008761</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.40353443947922</v>
+        <v>37.08955582939744</v>
       </c>
       <c r="R46" t="n">
-        <v>73.70428898346404</v>
+        <v>71.38782625352545</v>
       </c>
       <c r="S46" t="n">
-        <v>180.3745950736087</v>
+        <v>179.4767667166956</v>
       </c>
       <c r="T46" t="n">
-        <v>236.1349782779884</v>
+        <v>235.9148534330488</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9543566406135</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>104867.7002815641</v>
+        <v>99122.25903168188</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>111972.8003498469</v>
+        <v>104867.7002815641</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113747.6812062451</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113747.6812062451</v>
+        <v>137221.5714928285</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>20508.05359276176</v>
+      </c>
+      <c r="C2" t="n">
         <v>21696.765575496</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23166.78627927867</v>
       </c>
       <c r="D2" t="n">
         <v>23166.78627927866</v>
       </c>
       <c r="E2" t="n">
-        <v>23534.00300818866</v>
+        <v>24171.64443529305</v>
       </c>
       <c r="F2" t="n">
-        <v>23534.00300818866</v>
+        <v>24171.64443529305</v>
       </c>
       <c r="G2" t="n">
-        <v>23534.00300818867</v>
+        <v>24171.64443529306</v>
       </c>
       <c r="H2" t="n">
-        <v>23534.00300818866</v>
+        <v>24171.64443529305</v>
       </c>
       <c r="I2" t="n">
-        <v>23534.00300818866</v>
+        <v>24171.64443529307</v>
       </c>
       <c r="J2" t="n">
-        <v>23534.00300818866</v>
+        <v>24171.64443529306</v>
       </c>
       <c r="K2" t="n">
-        <v>23534.00300818867</v>
+        <v>24171.64443529306</v>
       </c>
       <c r="L2" t="n">
-        <v>23534.00300818867</v>
+        <v>24171.64443529305</v>
       </c>
       <c r="M2" t="n">
-        <v>23534.00300818867</v>
+        <v>24171.64443529306</v>
       </c>
       <c r="N2" t="n">
-        <v>23534.00300818866</v>
+        <v>24171.64443529306</v>
       </c>
       <c r="O2" t="n">
-        <v>23534.00300818867</v>
+        <v>24171.64443529305</v>
       </c>
       <c r="P2" t="n">
-        <v>23534.00300818867</v>
+        <v>28390.6699640335</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115780.3165557425</v>
+        <v>108741.6456018667</v>
       </c>
       <c r="C3" t="n">
-        <v>8537.162614542789</v>
+        <v>6651.454316142675</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8029.134114982229</v>
       </c>
       <c r="E3" t="n">
-        <v>2113.985285983573</v>
+        <v>6470.636259618461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>19111.76994670917</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>10.33799579267563</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>36087.68291100337</v>
+      </c>
+      <c r="C5" t="n">
         <v>36246.92010144652</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36451.30153811922</v>
       </c>
       <c r="D5" t="n">
         <v>36451.30153811922</v>
       </c>
       <c r="E5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="F5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="G5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="H5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="I5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="J5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="K5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="L5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="M5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="N5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="O5" t="n">
-        <v>2881.063633150532</v>
+        <v>2999.279511390021</v>
       </c>
       <c r="P5" t="n">
-        <v>2881.063633150532</v>
+        <v>4457.11039988581</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130330.471081693</v>
+        <v>-124321.2749201083</v>
       </c>
       <c r="C6" t="n">
-        <v>-21821.67787338334</v>
+        <v>-21201.6088420932</v>
       </c>
       <c r="D6" t="n">
-        <v>-13284.51525884055</v>
+        <v>-21313.64937382278</v>
       </c>
       <c r="E6" t="n">
-        <v>18538.95408905455</v>
+        <v>14701.72866428457</v>
       </c>
       <c r="F6" t="n">
-        <v>20652.93937503813</v>
+        <v>21172.36492390303</v>
       </c>
       <c r="G6" t="n">
-        <v>20652.93937503814</v>
+        <v>21172.36492390304</v>
       </c>
       <c r="H6" t="n">
-        <v>20652.93937503813</v>
+        <v>21172.36492390303</v>
       </c>
       <c r="I6" t="n">
-        <v>20652.93937503813</v>
+        <v>21172.36492390305</v>
       </c>
       <c r="J6" t="n">
-        <v>20652.93937503813</v>
+        <v>21172.36492390303</v>
       </c>
       <c r="K6" t="n">
-        <v>20652.93937503814</v>
+        <v>21172.36492390303</v>
       </c>
       <c r="L6" t="n">
-        <v>20652.93937503814</v>
+        <v>21172.36492390303</v>
       </c>
       <c r="M6" t="n">
-        <v>20652.93937503814</v>
+        <v>21172.36492390304</v>
       </c>
       <c r="N6" t="n">
-        <v>20652.93937503813</v>
+        <v>21172.36492390304</v>
       </c>
       <c r="O6" t="n">
-        <v>20652.93937503814</v>
+        <v>21172.36492390303</v>
       </c>
       <c r="P6" t="n">
-        <v>20652.93937503814</v>
+        <v>4811.451621645844</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>112.8478399542832</v>
+      </c>
+      <c r="C3" t="n">
         <v>120.1522982314917</v>
-      </c>
-      <c r="C3" t="n">
-        <v>129.5275934917073</v>
       </c>
       <c r="D3" t="n">
         <v>129.5275934917073</v>
       </c>
       <c r="E3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="F3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="G3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="H3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="I3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="J3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="K3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="L3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="M3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="N3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="O3" t="n">
-        <v>132.1588822546115</v>
+        <v>137.581628962845</v>
       </c>
       <c r="P3" t="n">
-        <v>132.1588822546115</v>
+        <v>160.7282770233651</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.1522982314917</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="C3" t="n">
+        <v>7.304458277208568</v>
+      </c>
+      <c r="D3" t="n">
         <v>9.375295260215537</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>2.631288762904262</v>
+        <v>8.054035471137723</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.14664806052005</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4830243144984589</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H2" t="n">
-        <v>4.946772760857344</v>
+        <v>4.646041973595184</v>
       </c>
       <c r="I2" t="n">
-        <v>18.62179488470185</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J2" t="n">
-        <v>40.99608491266361</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K2" t="n">
-        <v>61.4425041453834</v>
+        <v>57.70720973501367</v>
       </c>
       <c r="L2" t="n">
-        <v>76.22485951021562</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M2" t="n">
-        <v>84.81484316317758</v>
+        <v>79.6586664416986</v>
       </c>
       <c r="N2" t="n">
-        <v>86.18723599674634</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O2" t="n">
-        <v>81.38416296945228</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P2" t="n">
-        <v>69.45950020527157</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.16119194229549</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R2" t="n">
-        <v>30.34177609561385</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S2" t="n">
-        <v>11.00691656663364</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T2" t="n">
-        <v>2.114438936717005</v>
+        <v>1.985895153366329</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03864194515987671</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2584407924224539</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H3" t="n">
-        <v>2.495993968922122</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I3" t="n">
-        <v>8.898071142615191</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J3" t="n">
-        <v>24.41698732268457</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K3" t="n">
-        <v>41.73252041498898</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>52.70313506544142</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -31145,22 +31147,22 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>49.35085623021403</v>
+        <v>46.35065335782625</v>
       </c>
       <c r="Q3" t="n">
-        <v>32.98974045027676</v>
+        <v>30.98418428329678</v>
       </c>
       <c r="R3" t="n">
-        <v>16.04599937514149</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S3" t="n">
-        <v>4.800424368022332</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T3" t="n">
-        <v>1.041697755422084</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01700268371200355</v>
+        <v>0.0159690339557948</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2166680787780998</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H4" t="n">
-        <v>1.926376191318016</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I4" t="n">
-        <v>6.515800041799586</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J4" t="n">
-        <v>15.31843316961166</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K4" t="n">
-        <v>25.17289133440105</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L4" t="n">
-        <v>32.21263418488223</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M4" t="n">
-        <v>33.96370620337068</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N4" t="n">
-        <v>33.15612518247052</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O4" t="n">
-        <v>30.62504808038089</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P4" t="n">
-        <v>26.20501927330763</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.14299703295525</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R4" t="n">
-        <v>9.742184705786196</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S4" t="n">
-        <v>3.775933700160156</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9257636093246082</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01181825884244182</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.520713943685255</v>
+        <v>0.4830243144984589</v>
       </c>
       <c r="H5" t="n">
-        <v>5.332761675766619</v>
+        <v>4.946772760857344</v>
       </c>
       <c r="I5" t="n">
-        <v>20.07482431392581</v>
+        <v>18.62179488470185</v>
       </c>
       <c r="J5" t="n">
-        <v>44.19494507785645</v>
+        <v>40.99608491266361</v>
       </c>
       <c r="K5" t="n">
-        <v>66.23676631405331</v>
+        <v>61.4425041453834</v>
       </c>
       <c r="L5" t="n">
-        <v>82.17256566811095</v>
+        <v>76.22485951021562</v>
       </c>
       <c r="M5" t="n">
-        <v>91.4328122641236</v>
+        <v>84.81484316317758</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661934</v>
+        <v>86.18723599674634</v>
       </c>
       <c r="O5" t="n">
-        <v>87.73444147909908</v>
+        <v>81.38416296945228</v>
       </c>
       <c r="P5" t="n">
-        <v>74.87931599436934</v>
+        <v>69.45950020527157</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.23124788614112</v>
+        <v>52.16119194229549</v>
       </c>
       <c r="R5" t="n">
-        <v>32.70929726501893</v>
+        <v>30.34177609561385</v>
       </c>
       <c r="S5" t="n">
-        <v>11.86576899172776</v>
+        <v>11.00691656663364</v>
       </c>
       <c r="T5" t="n">
-        <v>2.279425288482205</v>
+        <v>2.114438936717005</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.03864194515987671</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2584407924224539</v>
       </c>
       <c r="H6" t="n">
-        <v>2.690752461025844</v>
+        <v>2.495993968922122</v>
       </c>
       <c r="I6" t="n">
-        <v>9.592373668961342</v>
+        <v>8.898071142615191</v>
       </c>
       <c r="J6" t="n">
-        <v>26.32220652268742</v>
+        <v>24.41698732268457</v>
       </c>
       <c r="K6" t="n">
-        <v>44.98884348664328</v>
+        <v>41.73252041498898</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
@@ -31382,22 +31384,22 @@
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>53.20162608907502</v>
+        <v>49.35085623021403</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.56387812247782</v>
+        <v>32.98974045027676</v>
       </c>
       <c r="R6" t="n">
-        <v>17.29804352328877</v>
+        <v>16.04599937514149</v>
       </c>
       <c r="S6" t="n">
-        <v>5.174993947522452</v>
+        <v>4.800424368022332</v>
       </c>
       <c r="T6" t="n">
-        <v>1.122979796404518</v>
+        <v>1.041697755422084</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01700268371200355</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2166680787780998</v>
       </c>
       <c r="H7" t="n">
-        <v>2.076688302211308</v>
+        <v>1.926376191318016</v>
       </c>
       <c r="I7" t="n">
-        <v>7.024217692960128</v>
+        <v>6.515800041799586</v>
       </c>
       <c r="J7" t="n">
-        <v>16.51370646860668</v>
+        <v>15.31843316961166</v>
       </c>
       <c r="K7" t="n">
-        <v>27.13709253809866</v>
+        <v>25.17289133440105</v>
       </c>
       <c r="L7" t="n">
-        <v>34.72613547480952</v>
+        <v>32.21263418488223</v>
       </c>
       <c r="M7" t="n">
-        <v>36.61384089471325</v>
+        <v>33.96370620337068</v>
       </c>
       <c r="N7" t="n">
-        <v>35.74324559419524</v>
+        <v>33.15612518247052</v>
       </c>
       <c r="O7" t="n">
-        <v>33.0146725181814</v>
+        <v>30.62504808038089</v>
       </c>
       <c r="P7" t="n">
-        <v>28.24975580022414</v>
+        <v>26.20501927330763</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.5586666172478</v>
+        <v>18.14299703295525</v>
       </c>
       <c r="R7" t="n">
-        <v>10.50235208868826</v>
+        <v>9.742184705786196</v>
       </c>
       <c r="S7" t="n">
-        <v>4.070563880714799</v>
+        <v>3.775933700160156</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9979994908377442</v>
+        <v>0.9257636093246082</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01181825884244182</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H11" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I11" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J11" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K11" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L11" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M11" t="n">
         <v>93.29022445704545</v>
@@ -31774,25 +31776,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R11" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S11" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T11" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H12" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I12" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J12" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K12" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -31859,19 +31861,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R12" t="n">
-        <v>17.64944469053096</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S12" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T12" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H13" t="n">
-        <v>2.118875194180494</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I13" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J13" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K13" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L13" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M13" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N13" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O13" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P13" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R13" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S13" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T13" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H14" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I14" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J14" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K14" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L14" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M14" t="n">
         <v>93.29022445704545</v>
@@ -32011,25 +32013,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R14" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S14" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T14" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H15" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I15" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J15" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K15" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
@@ -32096,19 +32098,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R15" t="n">
-        <v>17.64944469053096</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S15" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T15" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H16" t="n">
-        <v>2.118875194180494</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I16" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J16" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K16" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L16" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M16" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N16" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O16" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P16" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R16" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S16" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T16" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H17" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I17" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J17" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K17" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776882</v>
       </c>
       <c r="L17" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M17" t="n">
         <v>93.29022445704545</v>
@@ -32248,25 +32250,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q17" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R17" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S17" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T17" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758206</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H18" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I18" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J18" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K18" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -32333,19 +32335,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R18" t="n">
-        <v>17.64944469053096</v>
+        <v>18.37363716601919</v>
       </c>
       <c r="S18" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T18" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H19" t="n">
-        <v>2.118875194180494</v>
+        <v>2.20581693648627</v>
       </c>
       <c r="I19" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J19" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K19" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L19" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M19" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N19" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O19" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P19" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314244</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R19" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S19" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T19" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976018</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224706</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H20" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I20" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J20" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K20" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L20" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M20" t="n">
         <v>93.29022445704545</v>
@@ -32485,25 +32487,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R20" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S20" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T20" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H21" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I21" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J21" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K21" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -32570,19 +32572,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R21" t="n">
-        <v>17.64944469053096</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S21" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T21" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H22" t="n">
-        <v>2.118875194180494</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I22" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J22" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K22" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L22" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M22" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N22" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O22" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P22" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S22" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T22" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H23" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I23" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J23" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K23" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776882</v>
       </c>
       <c r="L23" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M23" t="n">
         <v>93.29022445704545</v>
@@ -32722,25 +32724,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R23" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S23" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T23" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758206</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H24" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I24" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J24" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K24" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -32807,19 +32809,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R24" t="n">
-        <v>17.64944469053096</v>
+        <v>18.37363716601919</v>
       </c>
       <c r="S24" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T24" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H25" t="n">
-        <v>2.118875194180494</v>
+        <v>2.20581693648627</v>
       </c>
       <c r="I25" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J25" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K25" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L25" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M25" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N25" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O25" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P25" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314244</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S25" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T25" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976018</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224706</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H26" t="n">
-        <v>5.441094081970008</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I26" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J26" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K26" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776882</v>
       </c>
       <c r="L26" t="n">
-        <v>83.84186054832004</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
@@ -32959,25 +32961,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R26" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S26" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T26" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758206</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H27" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I27" t="n">
-        <v>9.787237978289628</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J27" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K27" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -33044,19 +33046,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.2863406522473</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R27" t="n">
-        <v>17.64944469053096</v>
+        <v>18.37363716601919</v>
       </c>
       <c r="S27" t="n">
-        <v>5.280121380644146</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T27" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H28" t="n">
-        <v>2.118875194180494</v>
+        <v>2.20581693648627</v>
       </c>
       <c r="I28" t="n">
-        <v>7.166911188495984</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J28" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K28" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L28" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M28" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N28" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O28" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P28" t="n">
-        <v>28.82363556582542</v>
+        <v>30.00632773314244</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R28" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S28" t="n">
-        <v>4.153255365280167</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T28" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976018</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224706</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H29" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I29" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J29" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K29" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776882</v>
       </c>
       <c r="L29" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
@@ -33196,25 +33198,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R29" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S29" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T29" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758206</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H30" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I30" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J30" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K30" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
@@ -33281,19 +33283,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R30" t="n">
-        <v>17.64944469053096</v>
+        <v>18.37363716601919</v>
       </c>
       <c r="S30" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T30" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H31" t="n">
-        <v>2.118875194180494</v>
+        <v>2.20581693648627</v>
       </c>
       <c r="I31" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J31" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K31" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L31" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M31" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N31" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O31" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P31" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314244</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S31" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T31" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976018</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224706</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H32" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I32" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J32" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K32" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776882</v>
       </c>
       <c r="L32" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M32" t="n">
         <v>93.29022445704545</v>
@@ -33433,25 +33435,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q32" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R32" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S32" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T32" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758206</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H33" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I33" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J33" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K33" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -33518,19 +33520,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R33" t="n">
-        <v>17.64944469053096</v>
+        <v>18.37363716601919</v>
       </c>
       <c r="S33" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T33" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H34" t="n">
-        <v>2.118875194180494</v>
+        <v>2.20581693648627</v>
       </c>
       <c r="I34" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J34" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K34" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L34" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M34" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N34" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O34" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P34" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314244</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R34" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S34" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T34" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976018</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224706</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H35" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I35" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J35" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K35" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776882</v>
       </c>
       <c r="L35" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M35" t="n">
         <v>93.29022445704545</v>
@@ -33670,25 +33672,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R35" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S35" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T35" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758206</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H36" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I36" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J36" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K36" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
@@ -33755,19 +33757,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R36" t="n">
-        <v>17.64944469053096</v>
+        <v>18.37363716601919</v>
       </c>
       <c r="S36" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T36" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H37" t="n">
-        <v>2.118875194180494</v>
+        <v>2.20581693648627</v>
       </c>
       <c r="I37" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J37" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K37" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L37" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M37" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N37" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O37" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P37" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314244</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R37" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S37" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T37" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976018</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224706</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H38" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I38" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J38" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K38" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776882</v>
       </c>
       <c r="L38" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M38" t="n">
         <v>93.29022445704545</v>
@@ -33907,25 +33909,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R38" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S38" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T38" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758206</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H39" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I39" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J39" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K39" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
@@ -33992,19 +33994,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R39" t="n">
-        <v>17.64944469053096</v>
+        <v>18.37363716601919</v>
       </c>
       <c r="S39" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T39" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H40" t="n">
-        <v>2.118875194180494</v>
+        <v>2.20581693648627</v>
       </c>
       <c r="I40" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J40" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K40" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L40" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M40" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N40" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O40" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P40" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314244</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R40" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S40" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T40" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976018</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224706</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H41" t="n">
-        <v>5.441094081970009</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I41" t="n">
-        <v>20.48263440450618</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J41" t="n">
-        <v>45.0927434482707</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K41" t="n">
-        <v>67.5823333410856</v>
+        <v>70.35537340776882</v>
       </c>
       <c r="L41" t="n">
-        <v>83.84186054832006</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M41" t="n">
         <v>93.29022445704545</v>
@@ -34144,25 +34146,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>89.5167231054339</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>76.40045212790335</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.37355777315651</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R41" t="n">
-        <v>33.37377040171354</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S41" t="n">
-        <v>12.10681619850035</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T41" t="n">
-        <v>2.325730681686681</v>
+        <v>2.421160123758206</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H42" t="n">
-        <v>2.745413761553346</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I42" t="n">
-        <v>9.78723797828963</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J42" t="n">
-        <v>26.85692908157158</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K42" t="n">
-        <v>45.90276950913239</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
@@ -34229,19 +34231,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.28634065224731</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R42" t="n">
-        <v>17.64944469053096</v>
+        <v>18.37363716601919</v>
       </c>
       <c r="S42" t="n">
-        <v>5.280121380644147</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T42" t="n">
-        <v>1.14579257350932</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H43" t="n">
-        <v>2.118875194180494</v>
+        <v>2.20581693648627</v>
       </c>
       <c r="I43" t="n">
-        <v>7.166911188495985</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J43" t="n">
-        <v>16.84917421793629</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K43" t="n">
-        <v>27.68836910186779</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L43" t="n">
-        <v>35.43157967855602</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M43" t="n">
-        <v>37.35763289698797</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N43" t="n">
-        <v>36.46935188511274</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O43" t="n">
-        <v>33.68534920155247</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P43" t="n">
-        <v>28.82363556582543</v>
+        <v>30.00632773314244</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.95599122044634</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R43" t="n">
-        <v>10.7157021578903</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S43" t="n">
-        <v>4.153255365280168</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T43" t="n">
-        <v>1.018273355076515</v>
+        <v>1.060055173976018</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01353261924224706</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.531291988963262</v>
+        <v>0.6461438272296077</v>
       </c>
       <c r="H44" t="n">
-        <v>5.441094081970009</v>
+        <v>6.617320470615222</v>
       </c>
       <c r="I44" t="n">
-        <v>20.48263440450618</v>
+        <v>24.91045989926948</v>
       </c>
       <c r="J44" t="n">
-        <v>45.0927434482707</v>
+        <v>54.84064965632897</v>
       </c>
       <c r="K44" t="n">
-        <v>67.5823333410856</v>
+        <v>82.19191786295828</v>
       </c>
       <c r="L44" t="n">
-        <v>83.84186054832006</v>
+        <v>101.9663420155364</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>108.968414601395</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>108.5904809009689</v>
       </c>
       <c r="O44" t="n">
-        <v>89.5167231054339</v>
+        <v>108.8679657701327</v>
       </c>
       <c r="P44" t="n">
-        <v>76.40045212790335</v>
+        <v>92.9162900354017</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.37355777315651</v>
+        <v>69.77626422274135</v>
       </c>
       <c r="R44" t="n">
-        <v>33.37377040171354</v>
+        <v>40.58833218721188</v>
       </c>
       <c r="S44" t="n">
-        <v>12.10681619850035</v>
+        <v>14.7240024629947</v>
       </c>
       <c r="T44" t="n">
-        <v>2.325730681686681</v>
+        <v>2.828494603697609</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.05169150617836861</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.3457174260502569</v>
       </c>
       <c r="H45" t="n">
-        <v>2.745413761553346</v>
+        <v>3.338902509485377</v>
       </c>
       <c r="I45" t="n">
-        <v>9.78723797828963</v>
+        <v>11.90299032673034</v>
       </c>
       <c r="J45" t="n">
-        <v>26.85692908157158</v>
+        <v>32.66271523924818</v>
       </c>
       <c r="K45" t="n">
-        <v>45.90276950913239</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>71.79271395519858</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>60.85178132691929</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>68.87158353809953</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>73.42966914434953</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>66.01686533059687</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.28634065224731</v>
+        <v>44.13052617441525</v>
       </c>
       <c r="R45" t="n">
-        <v>17.64944469053096</v>
+        <v>21.46480650512035</v>
       </c>
       <c r="S45" t="n">
-        <v>5.280121380644147</v>
+        <v>6.421549558433496</v>
       </c>
       <c r="T45" t="n">
-        <v>1.14579257350932</v>
+        <v>1.39348383570257</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.02274456750330639</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2898378765995107</v>
       </c>
       <c r="H46" t="n">
-        <v>2.118875194180494</v>
+        <v>2.576922211948379</v>
       </c>
       <c r="I46" t="n">
-        <v>7.166911188495985</v>
+        <v>8.71621541628347</v>
       </c>
       <c r="J46" t="n">
-        <v>16.84917421793629</v>
+        <v>20.49153787558541</v>
       </c>
       <c r="K46" t="n">
-        <v>27.68836910186779</v>
+        <v>33.6738914812886</v>
       </c>
       <c r="L46" t="n">
-        <v>35.43157967855602</v>
+        <v>43.09098758098545</v>
       </c>
       <c r="M46" t="n">
-        <v>37.35763289698797</v>
+        <v>45.43340460186693</v>
       </c>
       <c r="N46" t="n">
-        <v>36.46935188511274</v>
+        <v>44.35309978908698</v>
       </c>
       <c r="O46" t="n">
-        <v>33.68534920155247</v>
+        <v>40.96726641244722</v>
       </c>
       <c r="P46" t="n">
-        <v>28.82363556582543</v>
+        <v>35.05457372981717</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.95599122044634</v>
+        <v>24.26996983052812</v>
       </c>
       <c r="R46" t="n">
-        <v>10.7157021578903</v>
+        <v>13.03216488782891</v>
       </c>
       <c r="S46" t="n">
-        <v>4.153255365280168</v>
+        <v>5.051083722193289</v>
       </c>
       <c r="T46" t="n">
-        <v>1.018273355076515</v>
+        <v>1.238398200016091</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01580933872360969</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.48094395269159</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>3.287497588501875</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>11.75723032779312</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_21_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37749.71705569803</v>
+        <v>-49932.02658816836</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21435272.5865369</v>
+        <v>21460525.19942029</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1328991.44974829</v>
+        <v>1322961.044101095</v>
       </c>
     </row>
     <row r="11">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>6.944471810258847</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.14970355050605</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>13.80934987914306</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>24.10542890307158</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>24.10542890307158</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>24.10542890307158</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>8.268873201708415</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>8.268873201708415</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>8.268873201708415</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.268873201708415</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>8.268873201708415</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>7.670389724712637</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>23.19179796761868</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>38.71320621052472</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>54.23461445343075</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>54.23461445343075</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.94198460443474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.09081091291113</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>17.09081091291113</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>17.09081091291113</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>17.09081091291113</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>17.09081091291113</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>16.775663454454</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>20.03028606707086</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>35.5516943099769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>51.07310255288294</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>62.71276057739813</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>62.71276057739813</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>62.71276057739813</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.71276057739813</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>62.71276057739813</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>46.87620487603496</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>31.03964917467179</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>17.09081091291113</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>17.09081091291113</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.09081091291113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.254255211547963</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22561,49 +22561,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1579769515977</v>
       </c>
       <c r="H2" t="n">
-        <v>303.153370424964</v>
+        <v>302.8526396377018</v>
       </c>
       <c r="I2" t="n">
-        <v>67.99853108690158</v>
+        <v>66.86645017139571</v>
       </c>
       <c r="J2" t="n">
-        <v>34.81979492599199</v>
+        <v>32.32750642064433</v>
       </c>
       <c r="K2" t="n">
-        <v>31.42917993820345</v>
+        <v>27.69388552783374</v>
       </c>
       <c r="L2" t="n">
-        <v>23.89450156601852</v>
+        <v>19.2605385526292</v>
       </c>
       <c r="M2" t="n">
-        <v>13.63155801534685</v>
+        <v>8.475381293867869</v>
       </c>
       <c r="N2" t="n">
-        <v>11.96466381132231</v>
+        <v>6.72505475987299</v>
       </c>
       <c r="O2" t="n">
-        <v>16.75322690579426</v>
+        <v>11.80561265633085</v>
       </c>
       <c r="P2" t="n">
-        <v>28.41253737042842</v>
+        <v>24.18986307561259</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.04366499467729</v>
+        <v>37.87261245685656</v>
       </c>
       <c r="R2" t="n">
-        <v>58.81494431611752</v>
+        <v>56.97036671910967</v>
       </c>
       <c r="S2" t="n">
-        <v>123.5904949947116</v>
+        <v>122.9213478872065</v>
       </c>
       <c r="T2" t="n">
-        <v>217.9985240592434</v>
+        <v>217.8699802758928</v>
       </c>
       <c r="U2" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4512448779251</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22640,22 +22640,22 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6617707663822</v>
       </c>
       <c r="H3" t="n">
-        <v>67.69548664993043</v>
+        <v>67.54374686571899</v>
       </c>
       <c r="I3" t="n">
-        <v>31.94943612980073</v>
+        <v>31.40849275738481</v>
       </c>
       <c r="J3" t="n">
-        <v>28.43664143721497</v>
+        <v>26.95225147731545</v>
       </c>
       <c r="K3" t="n">
-        <v>16.63032124124894</v>
+        <v>14.09326236962642</v>
       </c>
       <c r="L3" t="n">
-        <v>3.411388745407635</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22667,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.908981644977501</v>
+        <v>4.908778772589713</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.70843422154194</v>
+        <v>23.70287805456196</v>
       </c>
       <c r="R3" t="n">
-        <v>43.92968946019</v>
+        <v>42.95419973026392</v>
       </c>
       <c r="S3" t="n">
-        <v>102.4015191999815</v>
+        <v>102.1096854188119</v>
       </c>
       <c r="T3" t="n">
-        <v>156.7700756945035</v>
+        <v>156.7067474194398</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3613337192077</v>
+        <v>195.3603000694515</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -22719,49 +22719,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3612190849339</v>
       </c>
       <c r="H4" t="n">
-        <v>146.3021152741505</v>
+        <v>146.1850044512799</v>
       </c>
       <c r="I4" t="n">
-        <v>109.062902574934</v>
+        <v>108.6667853949175</v>
       </c>
       <c r="J4" t="n">
-        <v>37.04597107107902</v>
+        <v>36.11471251334376</v>
       </c>
       <c r="K4" t="n">
-        <v>28.6078221063498</v>
+        <v>27.07747822466578</v>
       </c>
       <c r="L4" t="n">
-        <v>24.37397299861712</v>
+        <v>22.41565970901927</v>
       </c>
       <c r="M4" t="n">
-        <v>24.3660030835062</v>
+        <v>22.30123629540936</v>
       </c>
       <c r="N4" t="n">
-        <v>20.57219157480551</v>
+        <v>18.55652032594892</v>
       </c>
       <c r="O4" t="n">
-        <v>27.31164863678001</v>
+        <v>25.44984999261544</v>
       </c>
       <c r="P4" t="n">
-        <v>31.16791274233458</v>
+        <v>29.57482236659715</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.31950182682881</v>
+        <v>43.21652862697032</v>
       </c>
       <c r="R4" t="n">
-        <v>75.27006628211034</v>
+        <v>74.67780643556814</v>
       </c>
       <c r="S4" t="n">
-        <v>180.9814683209813</v>
+        <v>180.7519167387287</v>
       </c>
       <c r="T4" t="n">
-        <v>236.2837682760401</v>
+        <v>236.2274880237403</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9583477204947</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -23758,7 +23758,7 @@
         <v>26.38060125819129</v>
       </c>
       <c r="K17" t="n">
-        <v>18.7810162654483</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L17" t="n">
         <v>8.203336102828075</v>
@@ -23776,7 +23776,7 @@
         <v>14.11404580593616</v>
       </c>
       <c r="Q17" t="n">
-        <v>30.30609330503576</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R17" t="n">
         <v>52.568978994272</v>
@@ -23834,10 +23834,10 @@
         <v>30.11773571737421</v>
       </c>
       <c r="J18" t="n">
-        <v>23.41031550293733</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K18" t="n">
-        <v>8.039529638152516</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23919,7 +23919,7 @@
         <v>23.42589057308062</v>
       </c>
       <c r="L19" t="n">
-        <v>17.7428847126168</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M19" t="n">
         <v>17.37445023310241</v>
@@ -23995,7 +23995,7 @@
         <v>26.38060125819129</v>
       </c>
       <c r="K20" t="n">
-        <v>18.78101626544829</v>
+        <v>18.7810162654483</v>
       </c>
       <c r="L20" t="n">
         <v>8.203336102828075</v>
@@ -24013,7 +24013,7 @@
         <v>14.11404580593616</v>
       </c>
       <c r="Q20" t="n">
-        <v>30.30609330503575</v>
+        <v>30.30609330503576</v>
       </c>
       <c r="R20" t="n">
         <v>52.568978994272</v>
@@ -24071,10 +24071,10 @@
         <v>30.11773571737421</v>
       </c>
       <c r="J21" t="n">
-        <v>23.41031550293732</v>
+        <v>23.41031550293733</v>
       </c>
       <c r="K21" t="n">
-        <v>8.039529638152509</v>
+        <v>8.039529638152516</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24156,7 +24156,7 @@
         <v>23.42589057308062</v>
       </c>
       <c r="L22" t="n">
-        <v>17.74288471261679</v>
+        <v>17.7428847126168</v>
       </c>
       <c r="M22" t="n">
         <v>17.37445023310241</v>
@@ -24469,7 +24469,7 @@
         <v>26.38060125819129</v>
       </c>
       <c r="K26" t="n">
-        <v>18.7810162654483</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L26" t="n">
         <v>8.203336102828075</v>
@@ -24487,7 +24487,7 @@
         <v>14.11404580593616</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.30609330503576</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R26" t="n">
         <v>52.568978994272</v>
@@ -24545,10 +24545,10 @@
         <v>30.11773571737421</v>
       </c>
       <c r="J27" t="n">
-        <v>23.41031550293733</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K27" t="n">
-        <v>8.039529638152516</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24630,7 +24630,7 @@
         <v>23.42589057308062</v>
       </c>
       <c r="L28" t="n">
-        <v>17.7428847126168</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M28" t="n">
         <v>17.37445023310241</v>
@@ -24943,7 +24943,7 @@
         <v>26.38060125819129</v>
       </c>
       <c r="K32" t="n">
-        <v>18.7810162654483</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L32" t="n">
         <v>8.203336102828075</v>
@@ -24961,7 +24961,7 @@
         <v>14.11404580593616</v>
       </c>
       <c r="Q32" t="n">
-        <v>30.30609330503576</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R32" t="n">
         <v>52.568978994272</v>
@@ -25019,10 +25019,10 @@
         <v>30.11773571737421</v>
       </c>
       <c r="J33" t="n">
-        <v>23.41031550293733</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K33" t="n">
-        <v>8.039529638152516</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25104,7 +25104,7 @@
         <v>23.42589057308062</v>
       </c>
       <c r="L34" t="n">
-        <v>17.7428847126168</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M34" t="n">
         <v>17.37445023310241</v>
@@ -25180,7 +25180,7 @@
         <v>26.38060125819129</v>
       </c>
       <c r="K35" t="n">
-        <v>18.7810162654483</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L35" t="n">
         <v>8.203336102828075</v>
@@ -25198,7 +25198,7 @@
         <v>14.11404580593616</v>
       </c>
       <c r="Q35" t="n">
-        <v>30.30609330503576</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R35" t="n">
         <v>52.568978994272</v>
@@ -25256,10 +25256,10 @@
         <v>30.11773571737421</v>
       </c>
       <c r="J36" t="n">
-        <v>23.41031550293733</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K36" t="n">
-        <v>8.039529638152516</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25341,7 +25341,7 @@
         <v>23.42589057308062</v>
       </c>
       <c r="L37" t="n">
-        <v>17.7428847126168</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M37" t="n">
         <v>17.37445023310241</v>
@@ -25867,7 +25867,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>390.345154635513</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,25 +25876,25 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>401.1419177814998</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>403.9948574388665</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H44" t="n">
-        <v>301.182091927944</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I44" t="n">
-        <v>60.57778515682809</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J44" t="n">
-        <v>18.48294167697897</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25906,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.7330732454824584</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.107836625904653</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R44" t="n">
-        <v>46.72381062751163</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S44" t="n">
-        <v>119.2042619908454</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1559246089122</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4381953169066</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25958,19 +25958,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>89.8963039884049</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H45" t="n">
-        <v>66.70083832515573</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I45" t="n">
-        <v>28.40357357326966</v>
+        <v>30.11773571737421</v>
       </c>
       <c r="J45" t="n">
-        <v>18.70652356075183</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.56209233042347</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R45" t="n">
-        <v>37.53539260028506</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S45" t="n">
-        <v>100.4885602284008</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T45" t="n">
-        <v>156.3549613391593</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U45" t="n">
-        <v>179.6763680413106</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V45" t="n">
-        <v>195.896221592547</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>197.2914867018914</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -26037,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.2880492871125</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H46" t="n">
-        <v>145.5344584306495</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I46" t="n">
-        <v>106.4663700204336</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J46" t="n">
-        <v>30.94160780737001</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K46" t="n">
-        <v>18.57647807777823</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L46" t="n">
-        <v>11.53730631291606</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M46" t="n">
-        <v>10.83153789691311</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N46" t="n">
-        <v>7.359545719332466</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O46" t="n">
-        <v>15.1076316605491</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P46" t="n">
-        <v>20.72526791008761</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.08955582939744</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R46" t="n">
-        <v>71.38782625352545</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S46" t="n">
-        <v>179.4767667166956</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T46" t="n">
-        <v>235.9148534330488</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9543566406135</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99122.25903168188</v>
+        <v>104867.7002815641</v>
       </c>
     </row>
     <row r="3">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>137221.5714928285</v>
+        <v>116829.6147705831</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20508.05359276176</v>
+        <v>21696.765575496</v>
       </c>
       <c r="C2" t="n">
         <v>21696.765575496</v>
@@ -26322,22 +26322,22 @@
         <v>23166.78627927866</v>
       </c>
       <c r="E2" t="n">
-        <v>24171.64443529305</v>
+        <v>24171.64443529306</v>
       </c>
       <c r="F2" t="n">
         <v>24171.64443529305</v>
       </c>
       <c r="G2" t="n">
+        <v>24171.64443529305</v>
+      </c>
+      <c r="H2" t="n">
         <v>24171.64443529306</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>24171.64443529306</v>
+      </c>
+      <c r="J2" t="n">
         <v>24171.64443529305</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24171.64443529307</v>
-      </c>
-      <c r="J2" t="n">
-        <v>24171.64443529306</v>
       </c>
       <c r="K2" t="n">
         <v>24171.64443529306</v>
@@ -26346,16 +26346,16 @@
         <v>24171.64443529305</v>
       </c>
       <c r="M2" t="n">
-        <v>24171.64443529306</v>
+        <v>24171.64443529305</v>
       </c>
       <c r="N2" t="n">
         <v>24171.64443529306</v>
       </c>
       <c r="O2" t="n">
+        <v>24171.64443529306</v>
+      </c>
+      <c r="P2" t="n">
         <v>24171.64443529305</v>
-      </c>
-      <c r="P2" t="n">
-        <v>28390.6699640335</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108741.6456018667</v>
+        <v>115780.3165557425</v>
       </c>
       <c r="C3" t="n">
-        <v>6651.454316142675</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>8029.134114982229</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19111.76994670917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>10.33799579267563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36087.68291100337</v>
+        <v>36246.92010144652</v>
       </c>
       <c r="C5" t="n">
         <v>36246.92010144652</v>
@@ -26511,7 +26511,7 @@
         <v>2999.279511390021</v>
       </c>
       <c r="P5" t="n">
-        <v>4457.11039988581</v>
+        <v>2999.279511390021</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124321.2749201083</v>
+        <v>-131778.4886322218</v>
       </c>
       <c r="C6" t="n">
-        <v>-21201.6088420932</v>
+        <v>-15998.17207647929</v>
       </c>
       <c r="D6" t="n">
-        <v>-21313.64937382278</v>
+        <v>-22749.41675182003</v>
       </c>
       <c r="E6" t="n">
-        <v>14701.72866428457</v>
+        <v>13274.33510425411</v>
       </c>
       <c r="F6" t="n">
-        <v>21172.36492390303</v>
+        <v>19744.97136387257</v>
       </c>
       <c r="G6" t="n">
-        <v>21172.36492390304</v>
+        <v>19744.97136387257</v>
       </c>
       <c r="H6" t="n">
-        <v>21172.36492390303</v>
+        <v>19744.97136387257</v>
       </c>
       <c r="I6" t="n">
-        <v>21172.36492390305</v>
+        <v>19744.97136387258</v>
       </c>
       <c r="J6" t="n">
-        <v>21172.36492390303</v>
+        <v>19744.97136387257</v>
       </c>
       <c r="K6" t="n">
-        <v>21172.36492390303</v>
+        <v>19744.97136387258</v>
       </c>
       <c r="L6" t="n">
-        <v>21172.36492390303</v>
+        <v>19744.97136387257</v>
       </c>
       <c r="M6" t="n">
-        <v>21172.36492390304</v>
+        <v>19744.97136387257</v>
       </c>
       <c r="N6" t="n">
-        <v>21172.36492390304</v>
+        <v>19744.97136387258</v>
       </c>
       <c r="O6" t="n">
-        <v>21172.36492390303</v>
+        <v>19744.97136387258</v>
       </c>
       <c r="P6" t="n">
-        <v>4811.451621645844</v>
+        <v>19744.97136387257</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.8478399542832</v>
+        <v>120.1522982314917</v>
       </c>
       <c r="C3" t="n">
         <v>120.1522982314917</v>
@@ -26779,7 +26779,7 @@
         <v>137.581628962845</v>
       </c>
       <c r="P3" t="n">
-        <v>160.7282770233651</v>
+        <v>137.581628962845</v>
       </c>
     </row>
     <row r="4">
@@ -26831,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.8478399542832</v>
+        <v>120.1522982314917</v>
       </c>
       <c r="C3" t="n">
-        <v>7.304458277208568</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>9.375295260215537</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.14664806052005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.4830243144984589</v>
       </c>
       <c r="H2" t="n">
-        <v>4.646041973595184</v>
+        <v>4.946772760857344</v>
       </c>
       <c r="I2" t="n">
-        <v>17.48971396919599</v>
+        <v>18.62179488470186</v>
       </c>
       <c r="J2" t="n">
-        <v>38.50379640731595</v>
+        <v>40.99608491266361</v>
       </c>
       <c r="K2" t="n">
-        <v>57.70720973501367</v>
+        <v>61.44250414538339</v>
       </c>
       <c r="L2" t="n">
-        <v>71.5908964968263</v>
+        <v>76.22485951021562</v>
       </c>
       <c r="M2" t="n">
-        <v>79.6586664416986</v>
+        <v>84.81484316317758</v>
       </c>
       <c r="N2" t="n">
-        <v>80.94762694529702</v>
+        <v>86.18723599674634</v>
       </c>
       <c r="O2" t="n">
-        <v>76.43654871998886</v>
+        <v>81.38416296945228</v>
       </c>
       <c r="P2" t="n">
-        <v>65.23682591045574</v>
+        <v>69.45950020527157</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.99013940447476</v>
+        <v>52.16119194229549</v>
       </c>
       <c r="R2" t="n">
-        <v>28.497198498606</v>
+        <v>30.34177609561385</v>
       </c>
       <c r="S2" t="n">
-        <v>10.33776945912856</v>
+        <v>11.00691656663364</v>
       </c>
       <c r="T2" t="n">
-        <v>1.985895153366329</v>
+        <v>2.114438936717005</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.03864194515987671</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2584407924224539</v>
       </c>
       <c r="H3" t="n">
-        <v>2.344254184710675</v>
+        <v>2.495993968922122</v>
       </c>
       <c r="I3" t="n">
-        <v>8.357127770199273</v>
+        <v>8.898071142615192</v>
       </c>
       <c r="J3" t="n">
-        <v>22.93259736278504</v>
+        <v>24.41698732268457</v>
       </c>
       <c r="K3" t="n">
-        <v>39.19546154336646</v>
+        <v>41.73252041498898</v>
       </c>
       <c r="L3" t="n">
-        <v>52.70313506544142</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -31147,22 +31147,22 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>46.35065335782625</v>
+        <v>49.35085623021403</v>
       </c>
       <c r="Q3" t="n">
-        <v>30.98418428329678</v>
+        <v>32.98974045027676</v>
       </c>
       <c r="R3" t="n">
-        <v>15.07050964521541</v>
+        <v>16.04599937514149</v>
       </c>
       <c r="S3" t="n">
-        <v>4.508590586852725</v>
+        <v>4.800424368022332</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.041697755422084</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0159690339557948</v>
+        <v>0.01700268371200355</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2166680787780998</v>
       </c>
       <c r="H4" t="n">
-        <v>1.809265368447361</v>
+        <v>1.926376191318016</v>
       </c>
       <c r="I4" t="n">
-        <v>6.119682861783096</v>
+        <v>6.515800041799586</v>
       </c>
       <c r="J4" t="n">
-        <v>14.38717461187639</v>
+        <v>15.31843316961166</v>
       </c>
       <c r="K4" t="n">
-        <v>23.64254745271703</v>
+        <v>25.17289133440105</v>
       </c>
       <c r="L4" t="n">
-        <v>30.25432089528438</v>
+        <v>32.21263418488223</v>
       </c>
       <c r="M4" t="n">
-        <v>31.89893941527384</v>
+        <v>33.96370620337068</v>
       </c>
       <c r="N4" t="n">
-        <v>31.14045393361393</v>
+        <v>33.15612518247052</v>
       </c>
       <c r="O4" t="n">
-        <v>28.76324943621632</v>
+        <v>30.62504808038089</v>
       </c>
       <c r="P4" t="n">
-        <v>24.61192889757021</v>
+        <v>26.20501927330763</v>
       </c>
       <c r="Q4" t="n">
-        <v>17.04002383309676</v>
+        <v>18.14299703295525</v>
       </c>
       <c r="R4" t="n">
-        <v>9.149924859244006</v>
+        <v>9.742184705786196</v>
       </c>
       <c r="S4" t="n">
-        <v>3.546382117907553</v>
+        <v>3.775933700160157</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9257636093246081</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01181825884244182</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32238,7 +32238,7 @@
         <v>46.94299007511665</v>
       </c>
       <c r="K17" t="n">
-        <v>70.35537340776882</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L17" t="n">
         <v>87.28206196001675</v>
@@ -32265,7 +32265,7 @@
         <v>12.60358339694807</v>
       </c>
       <c r="T17" t="n">
-        <v>2.421160123758206</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U17" t="n">
         <v>0.04424735805840237</v>
@@ -32338,7 +32338,7 @@
         <v>37.77524272957209</v>
       </c>
       <c r="R18" t="n">
-        <v>18.37363716601919</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S18" t="n">
         <v>5.496775459034417</v>
@@ -32387,7 +32387,7 @@
         <v>0.2480980194411959</v>
       </c>
       <c r="H19" t="n">
-        <v>2.20581693648627</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I19" t="n">
         <v>7.460984075558875</v>
@@ -32411,7 +32411,7 @@
         <v>35.06752732974287</v>
       </c>
       <c r="P19" t="n">
-        <v>30.00632773314244</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q19" t="n">
         <v>20.7748259733896</v>
@@ -32423,10 +32423,10 @@
         <v>4.323671847897931</v>
       </c>
       <c r="T19" t="n">
-        <v>1.060055173976018</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01353261924224706</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>46.94299007511665</v>
       </c>
       <c r="K20" t="n">
-        <v>70.35537340776884</v>
+        <v>70.35537340776882</v>
       </c>
       <c r="L20" t="n">
         <v>87.28206196001675</v>
@@ -32502,7 +32502,7 @@
         <v>12.60358339694807</v>
       </c>
       <c r="T20" t="n">
-        <v>2.421160123758207</v>
+        <v>2.421160123758206</v>
       </c>
       <c r="U20" t="n">
         <v>0.04424735805840237</v>
@@ -32575,7 +32575,7 @@
         <v>37.77524272957209</v>
       </c>
       <c r="R21" t="n">
-        <v>18.3736371660192</v>
+        <v>18.37363716601919</v>
       </c>
       <c r="S21" t="n">
         <v>5.496775459034417</v>
@@ -32624,7 +32624,7 @@
         <v>0.2480980194411959</v>
       </c>
       <c r="H22" t="n">
-        <v>2.205816936486271</v>
+        <v>2.20581693648627</v>
       </c>
       <c r="I22" t="n">
         <v>7.460984075558875</v>
@@ -32648,7 +32648,7 @@
         <v>35.06752732974287</v>
       </c>
       <c r="P22" t="n">
-        <v>30.00632773314245</v>
+        <v>30.00632773314244</v>
       </c>
       <c r="Q22" t="n">
         <v>20.7748259733896</v>
@@ -32660,10 +32660,10 @@
         <v>4.323671847897931</v>
       </c>
       <c r="T22" t="n">
-        <v>1.060055173976019</v>
+        <v>1.060055173976018</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01353261924224707</v>
+        <v>0.01353261924224706</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32949,7 +32949,7 @@
         <v>46.94299007511665</v>
       </c>
       <c r="K26" t="n">
-        <v>70.35537340776882</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L26" t="n">
         <v>87.28206196001675</v>
@@ -32976,7 +32976,7 @@
         <v>12.60358339694807</v>
       </c>
       <c r="T26" t="n">
-        <v>2.421160123758206</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U26" t="n">
         <v>0.04424735805840237</v>
@@ -33049,7 +33049,7 @@
         <v>37.77524272957209</v>
       </c>
       <c r="R27" t="n">
-        <v>18.37363716601919</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S27" t="n">
         <v>5.496775459034417</v>
@@ -33098,7 +33098,7 @@
         <v>0.2480980194411959</v>
       </c>
       <c r="H28" t="n">
-        <v>2.20581693648627</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I28" t="n">
         <v>7.460984075558875</v>
@@ -33122,7 +33122,7 @@
         <v>35.06752732974287</v>
       </c>
       <c r="P28" t="n">
-        <v>30.00632773314244</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q28" t="n">
         <v>20.7748259733896</v>
@@ -33134,10 +33134,10 @@
         <v>4.323671847897931</v>
       </c>
       <c r="T28" t="n">
-        <v>1.060055173976018</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01353261924224706</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33423,7 +33423,7 @@
         <v>46.94299007511665</v>
       </c>
       <c r="K32" t="n">
-        <v>70.35537340776882</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L32" t="n">
         <v>87.28206196001675</v>
@@ -33450,7 +33450,7 @@
         <v>12.60358339694807</v>
       </c>
       <c r="T32" t="n">
-        <v>2.421160123758206</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U32" t="n">
         <v>0.04424735805840237</v>
@@ -33523,7 +33523,7 @@
         <v>37.77524272957209</v>
       </c>
       <c r="R33" t="n">
-        <v>18.37363716601919</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S33" t="n">
         <v>5.496775459034417</v>
@@ -33572,7 +33572,7 @@
         <v>0.2480980194411959</v>
       </c>
       <c r="H34" t="n">
-        <v>2.20581693648627</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I34" t="n">
         <v>7.460984075558875</v>
@@ -33596,7 +33596,7 @@
         <v>35.06752732974287</v>
       </c>
       <c r="P34" t="n">
-        <v>30.00632773314244</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q34" t="n">
         <v>20.7748259733896</v>
@@ -33608,10 +33608,10 @@
         <v>4.323671847897931</v>
       </c>
       <c r="T34" t="n">
-        <v>1.060055173976018</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01353261924224706</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>46.94299007511665</v>
       </c>
       <c r="K35" t="n">
-        <v>70.35537340776882</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L35" t="n">
         <v>87.28206196001675</v>
@@ -33687,7 +33687,7 @@
         <v>12.60358339694807</v>
       </c>
       <c r="T35" t="n">
-        <v>2.421160123758206</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U35" t="n">
         <v>0.04424735805840237</v>
@@ -33760,7 +33760,7 @@
         <v>37.77524272957209</v>
       </c>
       <c r="R36" t="n">
-        <v>18.37363716601919</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S36" t="n">
         <v>5.496775459034417</v>
@@ -33809,7 +33809,7 @@
         <v>0.2480980194411959</v>
       </c>
       <c r="H37" t="n">
-        <v>2.20581693648627</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I37" t="n">
         <v>7.460984075558875</v>
@@ -33833,7 +33833,7 @@
         <v>35.06752732974287</v>
       </c>
       <c r="P37" t="n">
-        <v>30.00632773314244</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q37" t="n">
         <v>20.7748259733896</v>
@@ -33845,10 +33845,10 @@
         <v>4.323671847897931</v>
       </c>
       <c r="T37" t="n">
-        <v>1.060055173976018</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01353261924224706</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6461438272296077</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H44" t="n">
-        <v>6.617320470615222</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I44" t="n">
-        <v>24.91045989926948</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J44" t="n">
-        <v>54.84064965632897</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K44" t="n">
-        <v>82.19191786295828</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L44" t="n">
-        <v>101.9663420155364</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M44" t="n">
-        <v>108.968414601395</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>108.5904809009689</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>108.8679657701327</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>92.9162900354017</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q44" t="n">
-        <v>69.77626422274135</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R44" t="n">
-        <v>40.58833218721188</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S44" t="n">
-        <v>14.7240024629947</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T44" t="n">
-        <v>2.828494603697609</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05169150617836861</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3457174260502569</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H45" t="n">
-        <v>3.338902509485377</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I45" t="n">
-        <v>11.90299032673034</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J45" t="n">
-        <v>32.66271523924818</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L45" t="n">
-        <v>71.79271395519858</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>60.85178132691929</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>68.87158353809953</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>73.42966914434953</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>66.01686533059687</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.13052617441525</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R45" t="n">
-        <v>21.46480650512035</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S45" t="n">
-        <v>6.421549558433496</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T45" t="n">
-        <v>1.39348383570257</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02274456750330639</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2898378765995107</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H46" t="n">
-        <v>2.576922211948379</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I46" t="n">
-        <v>8.71621541628347</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J46" t="n">
-        <v>20.49153787558541</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K46" t="n">
-        <v>33.6738914812886</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L46" t="n">
-        <v>43.09098758098545</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M46" t="n">
-        <v>45.43340460186693</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N46" t="n">
-        <v>44.35309978908698</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O46" t="n">
-        <v>40.96726641244722</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P46" t="n">
-        <v>35.05457372981717</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.26996983052812</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R46" t="n">
-        <v>13.03216488782891</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S46" t="n">
-        <v>5.051083722193289</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T46" t="n">
-        <v>1.238398200016091</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01580933872360969</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>6.48094395269159</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>3.287497588501875</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>15.67819014434953</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>11.75723032779312</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
